--- a/tables/Ch2-austicks.xlsx
+++ b/tables/Ch2-austicks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/thesis/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/PhD/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB83A7-9260-1B44-83F9-170BCC98AB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CEDA4D-4992-7D44-8A35-C470FD4FC315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23240" yWindow="1320" windowWidth="32220" windowHeight="16000" activeTab="2" xr2:uid="{3056D7C8-DDF2-8A44-B719-ADB2D9DA5A01}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="27500" windowHeight="17540" activeTab="2" xr2:uid="{3056D7C8-DDF2-8A44-B719-ADB2D9DA5A01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="590">
   <si>
     <t>COI (mt)</t>
   </si>
@@ -4492,9 +4492,6 @@
   </si>
   <si>
     <t>H (a)</t>
-  </si>
-  <si>
-    <t>Hosts (b)</t>
   </si>
 </sst>
 </file>
@@ -5311,26 +5308,19 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -5543,6 +5533,13 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5557,20 +5554,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B38ECD9D-AC5B-254C-BA50-9EF38B70B757}" name="Table1" displayName="Table1" ref="A2:K76" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B38ECD9D-AC5B-254C-BA50-9EF38B70B757}" name="Table1" displayName="Table1" ref="A2:K76" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A2:K76" xr:uid="{8894621F-3C27-4244-9253-F0FD1FA53E97}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7BFACB1E-915A-0740-8797-92906C25D173}" name="Species" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5FFFD8C1-1E40-6D43-9385-EF83588CAFA9}" name="Common name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BD47F1BA-03CF-D04E-90C0-0F399D3FB9B9}" name="H" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{81E6AAEC-E450-BC43-938E-BC742C9FF485}" name="COI (mt)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{004BD1E9-61A4-6C49-AD6B-AC2398E98D44}" name="12S (mt)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E98CD233-2F6F-8B45-9DE3-6B36F2524021}" name="16S (mt)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{90771E71-4EC7-6F48-9B24-3610C6B46150}" name="ITS2 (nu)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{0D0E0A16-C9C7-214A-B946-CFE7D88389FE}" name="18S (nu)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D64EDD7D-4C14-E94F-9228-B60D19285EE0}" name="mt genome" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{50EC97CC-5D98-5B4D-B60E-D49A5546DD7E}" name="Hosts" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{75A86D1C-FD7F-A24D-8C08-6950DD8F6834}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7BFACB1E-915A-0740-8797-92906C25D173}" name="Species" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5FFFD8C1-1E40-6D43-9385-EF83588CAFA9}" name="Common name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BD47F1BA-03CF-D04E-90C0-0F399D3FB9B9}" name="H" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{81E6AAEC-E450-BC43-938E-BC742C9FF485}" name="COI (mt)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{004BD1E9-61A4-6C49-AD6B-AC2398E98D44}" name="12S (mt)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E98CD233-2F6F-8B45-9DE3-6B36F2524021}" name="16S (mt)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{90771E71-4EC7-6F48-9B24-3610C6B46150}" name="ITS2 (nu)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0D0E0A16-C9C7-214A-B946-CFE7D88389FE}" name="18S (nu)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D64EDD7D-4C14-E94F-9228-B60D19285EE0}" name="mt genome" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{50EC97CC-5D98-5B4D-B60E-D49A5546DD7E}" name="Hosts" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{75A86D1C-FD7F-A24D-8C08-6950DD8F6834}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10927,8 +10924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323DC2FF-0D5B-C949-ADAC-C9F90DFDA0D4}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10948,11 +10945,11 @@
       <c r="B1" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="106" t="s">
         <v>589</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>590</v>
+        <v>90</v>
       </c>
       <c r="E1" s="98" t="s">
         <v>238</v>
@@ -10972,7 +10969,7 @@
       <c r="B2" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="87" t="s">
@@ -10996,7 +10993,7 @@
       <c r="B3" s="48" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D3" s="87" t="s">
@@ -11020,7 +11017,7 @@
       <c r="B4" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D4" s="87" t="s">
@@ -11044,7 +11041,7 @@
       <c r="B5" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D5" s="87" t="s">
@@ -11066,7 +11063,7 @@
       <c r="B6" s="48" t="s">
         <v>482</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D6" s="87" t="s">
@@ -11090,7 +11087,7 @@
       <c r="B7" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D7" s="87" t="s">
@@ -11114,7 +11111,7 @@
       <c r="B8" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D8" s="87" t="s">
@@ -11136,7 +11133,7 @@
       <c r="B9" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D9" s="87" t="s">
@@ -11160,7 +11157,7 @@
       <c r="B10" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D10" s="87" t="s">
@@ -11184,7 +11181,7 @@
       <c r="B11" s="48" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D11" s="87" t="s">
@@ -11208,7 +11205,7 @@
       <c r="B12" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D12" s="87" t="s">
@@ -11232,7 +11229,7 @@
       <c r="B13" s="48" t="s">
         <v>482</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D13" s="87" t="s">
@@ -11254,7 +11251,7 @@
       <c r="B14" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D14" s="87" t="s">
@@ -11276,7 +11273,7 @@
       <c r="B15" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D15" s="87" t="s">
@@ -11298,7 +11295,7 @@
       <c r="B16" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D16" s="87" t="s">
@@ -11322,7 +11319,7 @@
       <c r="B17" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D17" s="87" t="s">
@@ -11346,7 +11343,7 @@
       <c r="B18" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D18" s="87" t="s">
@@ -11370,7 +11367,7 @@
       <c r="B19" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D19" s="87" t="s">
@@ -11392,7 +11389,7 @@
       <c r="B20" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D20" s="87" t="s">
@@ -11416,7 +11413,7 @@
       <c r="B21" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D21" s="87" t="s">
@@ -11438,7 +11435,7 @@
       <c r="B22" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D22" s="87" t="s">
@@ -11462,7 +11459,7 @@
       <c r="B23" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D23" s="87" t="s">
@@ -11486,7 +11483,7 @@
       <c r="B24" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D24" s="87" t="s">
@@ -11510,7 +11507,7 @@
       <c r="B25" s="48" t="s">
         <v>495</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D25" s="87" t="s">
@@ -11534,7 +11531,7 @@
       <c r="B26" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D26" s="87" t="s">
@@ -11558,7 +11555,7 @@
       <c r="B27" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="87" t="s">
@@ -11582,7 +11579,7 @@
       <c r="B28" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D28" s="87" t="s">
@@ -11606,7 +11603,7 @@
       <c r="B29" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D29" s="87" t="s">
@@ -11628,7 +11625,7 @@
       <c r="B30" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D30" s="87" t="s">
@@ -11652,7 +11649,7 @@
       <c r="B31" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D31" s="87" t="s">
@@ -11676,7 +11673,7 @@
       <c r="B32" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D32" s="87" t="s">
@@ -11698,7 +11695,7 @@
       <c r="B33" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D33" s="87" t="s">
@@ -11722,7 +11719,7 @@
       <c r="B34" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D34" s="87" t="s">
@@ -11744,7 +11741,7 @@
       <c r="B35" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D35" s="87" t="s">
@@ -11768,7 +11765,7 @@
       <c r="B36" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D36" s="87" t="s">
@@ -11790,7 +11787,7 @@
       <c r="B37" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D37" s="87" t="s">
@@ -11814,7 +11811,7 @@
       <c r="B38" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D38" s="87" t="s">
@@ -11838,7 +11835,7 @@
       <c r="B39" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D39" s="87" t="s">
@@ -11860,7 +11857,7 @@
       <c r="B40" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D40" s="87" t="s">
@@ -11884,7 +11881,7 @@
       <c r="B41" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D41" s="87" t="s">
@@ -11906,7 +11903,7 @@
       <c r="B42" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D42" s="87" t="s">
@@ -11930,7 +11927,7 @@
       <c r="B43" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D43" s="87" t="s">
@@ -11952,7 +11949,7 @@
       <c r="B44" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D44" s="87" t="s">
@@ -11976,7 +11973,7 @@
       <c r="B45" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D45" s="87" t="s">
@@ -11998,7 +11995,7 @@
       <c r="B46" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D46" s="87" t="s">
@@ -12020,7 +12017,7 @@
       <c r="B47" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D47" s="87" t="s">
@@ -12044,7 +12041,7 @@
       <c r="B48" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D48" s="87" t="s">
@@ -12066,7 +12063,7 @@
       <c r="B49" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="108" t="s">
+      <c r="C49" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D49" s="87" t="s">
@@ -12090,7 +12087,7 @@
       <c r="B50" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D50" s="87" t="s">
@@ -12114,7 +12111,7 @@
       <c r="B51" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D51" s="87" t="s">
@@ -12138,7 +12135,7 @@
       <c r="B52" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="C52" s="108" t="s">
+      <c r="C52" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D52" s="87" t="s">
@@ -12160,7 +12157,7 @@
       <c r="B53" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="C53" s="108" t="s">
+      <c r="C53" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D53" s="87" t="s">
@@ -12182,7 +12179,7 @@
       <c r="B54" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C54" s="108" t="s">
+      <c r="C54" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D54" s="87" t="s">
@@ -12204,7 +12201,7 @@
       <c r="B55" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C55" s="108" t="s">
+      <c r="C55" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="87" t="s">
@@ -12228,7 +12225,7 @@
       <c r="B56" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="C56" s="108" t="s">
+      <c r="C56" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D56" s="87" t="s">
@@ -12250,7 +12247,7 @@
       <c r="B57" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="C57" s="108" t="s">
+      <c r="C57" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D57" s="87" t="s">
@@ -12272,7 +12269,7 @@
       <c r="B58" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="C58" s="108" t="s">
+      <c r="C58" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D58" s="87" t="s">
@@ -12296,7 +12293,7 @@
       <c r="B59" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="C59" s="108" t="s">
+      <c r="C59" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D59" s="87" t="s">
@@ -12320,7 +12317,7 @@
       <c r="B60" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D60" s="87" t="s">
@@ -12344,7 +12341,7 @@
       <c r="B61" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="C61" s="108" t="s">
+      <c r="C61" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D61" s="87" t="s">
@@ -12368,7 +12365,7 @@
       <c r="B62" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="C62" s="108" t="s">
+      <c r="C62" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D62" s="87" t="s">
@@ -12390,7 +12387,7 @@
       <c r="B63" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D63" s="87" t="s">
@@ -12412,7 +12409,7 @@
       <c r="B64" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C64" s="108" t="s">
+      <c r="C64" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D64" s="87" t="s">
@@ -12434,7 +12431,7 @@
       <c r="B65" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="C65" s="108" t="s">
+      <c r="C65" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D65" s="87" t="s">
@@ -12456,7 +12453,7 @@
       <c r="B66" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="C66" s="108" t="s">
+      <c r="C66" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D66" s="87" t="s">
@@ -12480,7 +12477,7 @@
       <c r="B67" s="48" t="s">
         <v>527</v>
       </c>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D67" s="87" t="s">
@@ -12502,7 +12499,7 @@
       <c r="B68" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="C68" s="108" t="s">
+      <c r="C68" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D68" s="87" t="s">
@@ -12526,7 +12523,7 @@
       <c r="B69" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="C69" s="108" t="s">
+      <c r="C69" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D69" s="87" t="s">
@@ -12550,7 +12547,7 @@
       <c r="B70" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D70" s="87" t="s">
@@ -12574,7 +12571,7 @@
       <c r="B71" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="C71" s="108" t="s">
+      <c r="C71" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D71" s="87" t="s">
@@ -12598,7 +12595,7 @@
       <c r="B72" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D72" s="87" t="s">
@@ -12622,7 +12619,7 @@
       <c r="B73" s="48" t="s">
         <v>528</v>
       </c>
-      <c r="C73" s="108" t="s">
+      <c r="C73" s="107" t="s">
         <v>315</v>
       </c>
       <c r="D73" s="87" t="s">
@@ -12646,7 +12643,7 @@
       <c r="B74" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="C74" s="108" t="s">
+      <c r="C74" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D74" s="87" t="s">
@@ -12668,7 +12665,7 @@
       <c r="B75" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D75" s="87" t="s">
@@ -16812,18 +16809,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
       <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1">
@@ -18558,7 +18555,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:I76">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="GB">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="GB">
       <formula>NOT(ISERROR(SEARCH("GB",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
